--- a/experiment/VWP_CL_Random/__pool__/sub_998.xlsx
+++ b/experiment/VWP_CL_Random/__pool__/sub_998.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\VWP experiment\__pool__\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allis\OneDrive\Documents\GitHub\ETLR23-24\experiment\VWP_CL_Random\__pool__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D94DB71-9A29-4F91-8A4F-205492655FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DA77CF-63A4-4D31-805E-8E7756B32329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{F45BD464-817C-47AC-9645-0C30EE893EE0}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{F45BD464-817C-47AC-9645-0C30EE893EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="314">
   <si>
     <t>pic1</t>
   </si>
@@ -975,6 +975,9 @@
   </si>
   <si>
     <t>pic4</t>
+  </si>
+  <si>
+    <t>syl_count</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1019,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1326,15 +1340,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F643DA9-B95E-4920-9AEB-1A3A26E4193F}">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="L18" sqref="L18:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1378,13 +1392,16 @@
         <v>12</v>
       </c>
       <c r="O1" t="s">
+        <v>313</v>
+      </c>
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1427,14 +1444,17 @@
       <c r="N2">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="P2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1469,7 +1489,7 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3">
         <v>3.0835012129999999</v>
@@ -1477,14 +1497,17 @@
       <c r="N3">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="P3" t="s">
         <v>25</v>
       </c>
-      <c r="P3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1527,14 +1550,17 @@
       <c r="N4">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4">
+        <v>3.5974180819999999</v>
+      </c>
+      <c r="P4" t="s">
         <v>25</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1569,7 +1595,7 @@
         <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5">
         <v>4.1113349499999998</v>
@@ -1577,14 +1603,17 @@
       <c r="N5">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P5" t="s">
         <v>25</v>
       </c>
-      <c r="P5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1627,14 +1656,17 @@
       <c r="N6">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6">
+        <v>3.5974180819999999</v>
+      </c>
+      <c r="P6" t="s">
         <v>25</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1669,7 +1701,7 @@
         <v>57</v>
       </c>
       <c r="L7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M7">
         <v>4.1113349499999998</v>
@@ -1677,14 +1709,17 @@
       <c r="N7">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P7" t="s">
         <v>25</v>
       </c>
-      <c r="P7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1727,14 +1762,17 @@
       <c r="N8">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8">
+        <v>4.6252518189999998</v>
+      </c>
+      <c r="P8" t="s">
         <v>25</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -1769,7 +1807,7 @@
         <v>69</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M9">
         <v>4.1113349499999998</v>
@@ -1777,14 +1815,17 @@
       <c r="N9">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P9" t="s">
         <v>25</v>
       </c>
-      <c r="P9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1819,7 +1860,7 @@
         <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M10">
         <v>3.5974180819999999</v>
@@ -1827,14 +1868,17 @@
       <c r="N10">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P10" t="s">
         <v>25</v>
       </c>
-      <c r="P10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -1877,14 +1921,17 @@
       <c r="N11">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="P11" t="s">
         <v>25</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -1919,7 +1966,7 @@
         <v>87</v>
       </c>
       <c r="L12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M12">
         <v>3.5974180819999999</v>
@@ -1927,14 +1974,17 @@
       <c r="N12">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12">
+        <v>4.6252518189999998</v>
+      </c>
+      <c r="P12" t="s">
         <v>25</v>
       </c>
-      <c r="P12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -1977,14 +2027,17 @@
       <c r="N13">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P13" t="s">
         <v>25</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -2019,7 +2072,7 @@
         <v>99</v>
       </c>
       <c r="L14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M14">
         <v>3.0835012129999999</v>
@@ -2027,14 +2080,17 @@
       <c r="N14">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P14" t="s">
         <v>25</v>
       </c>
-      <c r="P14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -2077,14 +2133,17 @@
       <c r="N15">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="P15" t="s">
         <v>25</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -2119,7 +2178,7 @@
         <v>111</v>
       </c>
       <c r="L16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16">
         <v>4.1113349499999998</v>
@@ -2127,14 +2186,17 @@
       <c r="N16">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P16" t="s">
         <v>25</v>
       </c>
-      <c r="P16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -2177,14 +2239,17 @@
       <c r="N17">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17">
+        <v>3.5974180819999999</v>
+      </c>
+      <c r="P17" t="s">
         <v>25</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -2227,14 +2292,17 @@
       <c r="N18">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="P18" t="s">
         <v>124</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -2269,7 +2337,7 @@
         <v>130</v>
       </c>
       <c r="L19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M19">
         <v>3.0835012129999999</v>
@@ -2277,14 +2345,17 @@
       <c r="N19">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="P19" t="s">
         <v>124</v>
       </c>
-      <c r="P19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -2327,14 +2398,17 @@
       <c r="N20">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20">
+        <v>3.5974180819999999</v>
+      </c>
+      <c r="P20" t="s">
         <v>124</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>137</v>
       </c>
@@ -2369,7 +2443,7 @@
         <v>142</v>
       </c>
       <c r="L21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M21">
         <v>3.5974180819999999</v>
@@ -2377,14 +2451,17 @@
       <c r="N21">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21">
+        <v>3.5974180819999999</v>
+      </c>
+      <c r="P21" t="s">
         <v>124</v>
       </c>
-      <c r="P21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>143</v>
       </c>
@@ -2427,14 +2504,17 @@
       <c r="N22">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="P22" t="s">
         <v>124</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -2469,7 +2549,7 @@
         <v>154</v>
       </c>
       <c r="L23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M23">
         <v>3.5974180819999999</v>
@@ -2477,14 +2557,17 @@
       <c r="N23">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23">
+        <v>3.5974180819999999</v>
+      </c>
+      <c r="P23" t="s">
         <v>124</v>
       </c>
-      <c r="P23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>155</v>
       </c>
@@ -2527,14 +2610,17 @@
       <c r="N24">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="P24" t="s">
         <v>124</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -2569,7 +2655,7 @@
         <v>166</v>
       </c>
       <c r="L25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M25">
         <v>4.1113349499999998</v>
@@ -2577,14 +2663,17 @@
       <c r="N25">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P25" t="s">
         <v>124</v>
       </c>
-      <c r="P25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>167</v>
       </c>
@@ -2619,7 +2708,7 @@
         <v>172</v>
       </c>
       <c r="L26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M26">
         <v>3.0835012129999999</v>
@@ -2627,14 +2716,17 @@
       <c r="N26">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O26">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="P26" t="s">
         <v>124</v>
       </c>
-      <c r="P26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -2677,14 +2769,17 @@
       <c r="N27">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27">
+        <v>3.5974180819999999</v>
+      </c>
+      <c r="P27" t="s">
         <v>124</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>179</v>
       </c>
@@ -2719,7 +2814,7 @@
         <v>184</v>
       </c>
       <c r="L28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M28">
         <v>3.5974180819999999</v>
@@ -2727,14 +2822,17 @@
       <c r="N28">
         <v>5.1391686879999998</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28">
+        <v>5.1391686879999998</v>
+      </c>
+      <c r="P28" t="s">
         <v>124</v>
       </c>
-      <c r="P28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>185</v>
       </c>
@@ -2777,14 +2875,17 @@
       <c r="N29">
         <v>5.1391686879999998</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29">
+        <v>5.1391686879999998</v>
+      </c>
+      <c r="P29" t="s">
         <v>124</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>191</v>
       </c>
@@ -2819,7 +2920,7 @@
         <v>196</v>
       </c>
       <c r="L30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M30">
         <v>4.1113349499999998</v>
@@ -2827,14 +2928,17 @@
       <c r="N30">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P30" t="s">
         <v>124</v>
       </c>
-      <c r="P30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>197</v>
       </c>
@@ -2877,14 +2981,17 @@
       <c r="N31">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31">
+        <v>4.6252518189999998</v>
+      </c>
+      <c r="P31" t="s">
         <v>124</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>203</v>
       </c>
@@ -2919,7 +3026,7 @@
         <v>208</v>
       </c>
       <c r="L32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M32">
         <v>4.1113349499999998</v>
@@ -2927,14 +3034,17 @@
       <c r="N32">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P32" t="s">
         <v>124</v>
       </c>
-      <c r="P32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>209</v>
       </c>
@@ -2977,14 +3087,17 @@
       <c r="N33">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33">
+        <v>4.6252518189999998</v>
+      </c>
+      <c r="P33" t="s">
         <v>124</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -3027,14 +3140,17 @@
       <c r="N34">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34">
+        <v>4.6252518189999998</v>
+      </c>
+      <c r="P34" t="s">
         <v>221</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>222</v>
       </c>
@@ -3069,7 +3185,7 @@
         <v>227</v>
       </c>
       <c r="L35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M35">
         <v>4.6252518189999998</v>
@@ -3077,14 +3193,17 @@
       <c r="N35">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35">
+        <v>4.6252518189999998</v>
+      </c>
+      <c r="P35" t="s">
         <v>221</v>
       </c>
-      <c r="P35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>228</v>
       </c>
@@ -3127,14 +3246,17 @@
       <c r="N36">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P36" t="s">
         <v>221</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>234</v>
       </c>
@@ -3169,7 +3291,7 @@
         <v>239</v>
       </c>
       <c r="L37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M37">
         <v>4.1113349499999998</v>
@@ -3177,14 +3299,17 @@
       <c r="N37">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P37" t="s">
         <v>221</v>
       </c>
-      <c r="P37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>240</v>
       </c>
@@ -3227,14 +3352,17 @@
       <c r="N38">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O38">
+        <v>3.5974180819999999</v>
+      </c>
+      <c r="P38" t="s">
         <v>221</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>246</v>
       </c>
@@ -3269,7 +3397,7 @@
         <v>251</v>
       </c>
       <c r="L39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M39">
         <v>4.1113349499999998</v>
@@ -3277,14 +3405,17 @@
       <c r="N39">
         <v>5.6530855569999998</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P39" t="s">
         <v>221</v>
       </c>
-      <c r="P39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>252</v>
       </c>
@@ -3327,14 +3458,17 @@
       <c r="N40">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O40">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P40" t="s">
         <v>221</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>258</v>
       </c>
@@ -3369,7 +3503,7 @@
         <v>263</v>
       </c>
       <c r="L41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M41">
         <v>3.5974180819999999</v>
@@ -3377,14 +3511,17 @@
       <c r="N41">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O41">
+        <v>3.5974180819999999</v>
+      </c>
+      <c r="P41" t="s">
         <v>221</v>
       </c>
-      <c r="P41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>264</v>
       </c>
@@ -3419,7 +3556,7 @@
         <v>269</v>
       </c>
       <c r="L42" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M42">
         <v>4.1113349499999998</v>
@@ -3427,14 +3564,17 @@
       <c r="N42">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O42" t="s">
+      <c r="O42">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="P42" t="s">
         <v>221</v>
       </c>
-      <c r="P42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>270</v>
       </c>
@@ -3477,14 +3617,17 @@
       <c r="N43">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="P43" t="s">
         <v>221</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>276</v>
       </c>
@@ -3519,7 +3662,7 @@
         <v>281</v>
       </c>
       <c r="L44" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M44">
         <v>3.0835012129999999</v>
@@ -3527,14 +3670,17 @@
       <c r="N44">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O44">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P44" t="s">
         <v>221</v>
       </c>
-      <c r="P44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>282</v>
       </c>
@@ -3577,14 +3723,17 @@
       <c r="N45">
         <v>5.1391686879999998</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45">
+        <v>5.1391686879999998</v>
+      </c>
+      <c r="P45" t="s">
         <v>221</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>288</v>
       </c>
@@ -3619,7 +3768,7 @@
         <v>293</v>
       </c>
       <c r="L46" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M46">
         <v>4.6252518189999998</v>
@@ -3627,14 +3776,17 @@
       <c r="N46">
         <v>5.6530855569999998</v>
       </c>
-      <c r="O46" t="s">
+      <c r="O46">
+        <v>5.6530855569999998</v>
+      </c>
+      <c r="P46" t="s">
         <v>221</v>
       </c>
-      <c r="P46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>294</v>
       </c>
@@ -3677,14 +3829,17 @@
       <c r="N47">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O47" t="s">
+      <c r="O47">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="P47" t="s">
         <v>221</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>300</v>
       </c>
@@ -3719,7 +3874,7 @@
         <v>305</v>
       </c>
       <c r="L48" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M48">
         <v>4.6252518189999998</v>
@@ -3727,14 +3882,17 @@
       <c r="N48">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O48">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="P48" t="s">
         <v>221</v>
       </c>
-      <c r="P48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="Q48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>306</v>
       </c>
@@ -3777,14 +3935,20 @@
       <c r="N49">
         <v>4.1113349499999998</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O49">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P49" t="s">
         <v>221</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="Q2:Q49">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/experiment/VWP_CL_Random/__pool__/sub_998.xlsx
+++ b/experiment/VWP_CL_Random/__pool__/sub_998.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allis\OneDrive\Documents\GitHub\ETLR23-24\experiment\VWP_CL_Random\__pool__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DA77CF-63A4-4D31-805E-8E7756B32329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F199632-8B08-4522-A2CF-59B25BCE240A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{F45BD464-817C-47AC-9645-0C30EE893EE0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="315">
   <si>
     <t>pic1</t>
   </si>
@@ -978,6 +978,9 @@
   </si>
   <si>
     <t>syl_count</t>
+  </si>
+  <si>
+    <t>stim_name</t>
   </si>
 </sst>
 </file>
@@ -1340,15 +1343,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F643DA9-B95E-4920-9AEB-1A3A26E4193F}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18:L25"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="13" max="13" width="10.52734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1386,22 +1392,25 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>313</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1438,23 +1447,27 @@
       <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="str">
+        <f>LEFT(L2,7)</f>
+        <v>p_01_LF</v>
+      </c>
+      <c r="N2">
         <v>3.0835012129999999</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>3.0835012129999999</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1491,23 +1504,27 @@
       <c r="L3" t="s">
         <v>31</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M56" si="0">LEFT(L3,7)</f>
+        <v>p_02_LF</v>
+      </c>
+      <c r="N3">
         <v>3.0835012129999999</v>
       </c>
-      <c r="N3">
-        <v>4.1113349499999998</v>
-      </c>
       <c r="O3">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P3">
         <v>3.0835012129999999</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1544,23 +1561,27 @@
       <c r="L4" t="s">
         <v>38</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>p_03_LF</v>
+      </c>
+      <c r="N4">
         <v>3.5974180819999999</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>3.5974180819999999</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1597,8 +1618,9 @@
       <c r="L5" t="s">
         <v>44</v>
       </c>
-      <c r="M5">
-        <v>4.1113349499999998</v>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>p_04_LF</v>
       </c>
       <c r="N5">
         <v>4.1113349499999998</v>
@@ -1606,14 +1628,17 @@
       <c r="O5">
         <v>4.1113349499999998</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="Q5" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1650,23 +1675,27 @@
       <c r="L6" t="s">
         <v>50</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>p_05_LF</v>
+      </c>
+      <c r="N6">
         <v>3.5974180819999999</v>
       </c>
-      <c r="N6">
-        <v>4.1113349499999998</v>
-      </c>
       <c r="O6">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P6">
         <v>3.5974180819999999</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1703,23 +1732,27 @@
       <c r="L7" t="s">
         <v>56</v>
       </c>
-      <c r="M7">
-        <v>4.1113349499999998</v>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>p_06_LF</v>
       </c>
       <c r="N7">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="O7">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O7">
-        <v>4.1113349499999998</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="P7">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="Q7" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1756,8 +1789,9 @@
       <c r="L8" t="s">
         <v>62</v>
       </c>
-      <c r="M8">
-        <v>4.6252518189999998</v>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>p_07_LF</v>
       </c>
       <c r="N8">
         <v>4.6252518189999998</v>
@@ -1765,14 +1799,17 @@
       <c r="O8">
         <v>4.6252518189999998</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8">
+        <v>4.6252518189999998</v>
+      </c>
+      <c r="Q8" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -1809,23 +1846,27 @@
       <c r="L9" t="s">
         <v>68</v>
       </c>
-      <c r="M9">
-        <v>4.1113349499999998</v>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>p_08_LF</v>
       </c>
       <c r="N9">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="O9">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O9">
-        <v>4.1113349499999998</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="P9">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="Q9" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1862,23 +1903,27 @@
       <c r="L10" t="s">
         <v>75</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>u_09_LF</v>
+      </c>
+      <c r="N10">
         <v>3.5974180819999999</v>
       </c>
-      <c r="N10">
-        <v>4.1113349499999998</v>
-      </c>
       <c r="O10">
         <v>4.1113349499999998</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="Q10" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -1915,23 +1960,27 @@
       <c r="L11" t="s">
         <v>81</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>u_10_LF</v>
+      </c>
+      <c r="N11">
         <v>3.5974180819999999</v>
-      </c>
-      <c r="N11">
-        <v>3.0835012129999999</v>
       </c>
       <c r="O11">
         <v>3.0835012129999999</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="Q11" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -1968,23 +2017,27 @@
       <c r="L12" t="s">
         <v>87</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>u_11_LF</v>
+      </c>
+      <c r="N12">
         <v>3.5974180819999999</v>
-      </c>
-      <c r="N12">
-        <v>4.6252518189999998</v>
       </c>
       <c r="O12">
         <v>4.6252518189999998</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12">
+        <v>4.6252518189999998</v>
+      </c>
+      <c r="Q12" t="s">
         <v>25</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -2021,8 +2074,9 @@
       <c r="L13" t="s">
         <v>93</v>
       </c>
-      <c r="M13">
-        <v>4.1113349499999998</v>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v>u_12_LF</v>
       </c>
       <c r="N13">
         <v>4.1113349499999998</v>
@@ -2030,14 +2084,17 @@
       <c r="O13">
         <v>4.1113349499999998</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="Q13" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -2074,23 +2131,27 @@
       <c r="L14" t="s">
         <v>99</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v>u_13_LF</v>
+      </c>
+      <c r="N14">
         <v>3.0835012129999999</v>
       </c>
-      <c r="N14">
-        <v>4.1113349499999998</v>
-      </c>
       <c r="O14">
         <v>4.1113349499999998</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="Q14" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -2127,23 +2188,27 @@
       <c r="L15" t="s">
         <v>105</v>
       </c>
-      <c r="M15">
-        <v>4.1113349499999998</v>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>u_14_LF</v>
       </c>
       <c r="N15">
-        <v>3.0835012129999999</v>
+        <v>4.1113349499999998</v>
       </c>
       <c r="O15">
         <v>3.0835012129999999</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="Q15" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -2180,8 +2245,9 @@
       <c r="L16" t="s">
         <v>111</v>
       </c>
-      <c r="M16">
-        <v>4.1113349499999998</v>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v>u_15_LF</v>
       </c>
       <c r="N16">
         <v>4.1113349499999998</v>
@@ -2189,14 +2255,17 @@
       <c r="O16">
         <v>4.1113349499999998</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="Q16" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -2233,8 +2302,9 @@
       <c r="L17" t="s">
         <v>117</v>
       </c>
-      <c r="M17">
-        <v>3.5974180819999999</v>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v>u_16_LF</v>
       </c>
       <c r="N17">
         <v>3.5974180819999999</v>
@@ -2242,14 +2312,17 @@
       <c r="O17">
         <v>3.5974180819999999</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17">
+        <v>3.5974180819999999</v>
+      </c>
+      <c r="Q17" t="s">
         <v>25</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -2286,23 +2359,27 @@
       <c r="L18" t="s">
         <v>122</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v>p_17_LF</v>
+      </c>
+      <c r="N18">
         <v>3.0835012129999999</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>3.0835012129999999</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -2339,23 +2416,27 @@
       <c r="L19" t="s">
         <v>129</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v>p_18_LF</v>
+      </c>
+      <c r="N19">
         <v>3.0835012129999999</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>3.0835012129999999</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>124</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -2392,23 +2473,27 @@
       <c r="L20" t="s">
         <v>135</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="str">
+        <f t="shared" si="0"/>
+        <v>p_19_LF</v>
+      </c>
+      <c r="N20">
         <v>3.5974180819999999</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>3.5974180819999999</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>124</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>137</v>
       </c>
@@ -2445,23 +2530,27 @@
       <c r="L21" t="s">
         <v>141</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="str">
+        <f t="shared" si="0"/>
+        <v>p_20_LF</v>
+      </c>
+      <c r="N21">
         <v>3.5974180819999999</v>
       </c>
-      <c r="N21">
-        <v>4.1113349499999998</v>
-      </c>
       <c r="O21">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="P21">
         <v>3.5974180819999999</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>124</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>143</v>
       </c>
@@ -2498,23 +2587,27 @@
       <c r="L22" t="s">
         <v>147</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="str">
+        <f t="shared" si="0"/>
+        <v>p_21_LF</v>
+      </c>
+      <c r="N22">
         <v>3.0835012129999999</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>4.6252518189999998</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>3.0835012129999999</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>124</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -2551,23 +2644,27 @@
       <c r="L23" t="s">
         <v>153</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="str">
+        <f t="shared" si="0"/>
+        <v>p_22_LF</v>
+      </c>
+      <c r="N23">
         <v>3.5974180819999999</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>3.5974180819999999</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>124</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>155</v>
       </c>
@@ -2604,23 +2701,27 @@
       <c r="L24" t="s">
         <v>159</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="str">
+        <f t="shared" si="0"/>
+        <v>p_23_LF</v>
+      </c>
+      <c r="N24">
         <v>3.0835012129999999</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>3.0835012129999999</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>124</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -2657,23 +2758,27 @@
       <c r="L25" t="s">
         <v>165</v>
       </c>
-      <c r="M25">
-        <v>4.1113349499999998</v>
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v>p_24_LF</v>
       </c>
       <c r="N25">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="O25">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O25">
-        <v>4.1113349499999998</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="P25">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="Q25" t="s">
         <v>124</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>167</v>
       </c>
@@ -2710,8 +2815,9 @@
       <c r="L26" t="s">
         <v>172</v>
       </c>
-      <c r="M26">
-        <v>3.0835012129999999</v>
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v>u_25_LF</v>
       </c>
       <c r="N26">
         <v>3.0835012129999999</v>
@@ -2719,14 +2825,17 @@
       <c r="O26">
         <v>3.0835012129999999</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="Q26" t="s">
         <v>124</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -2763,23 +2872,27 @@
       <c r="L27" t="s">
         <v>178</v>
       </c>
-      <c r="M27">
-        <v>4.1113349499999998</v>
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v>u_26_LF</v>
       </c>
       <c r="N27">
-        <v>3.5974180819999999</v>
+        <v>4.1113349499999998</v>
       </c>
       <c r="O27">
         <v>3.5974180819999999</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27">
+        <v>3.5974180819999999</v>
+      </c>
+      <c r="Q27" t="s">
         <v>124</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>179</v>
       </c>
@@ -2816,23 +2929,27 @@
       <c r="L28" t="s">
         <v>184</v>
       </c>
-      <c r="M28">
+      <c r="M28" t="str">
+        <f t="shared" si="0"/>
+        <v>u_27_LF</v>
+      </c>
+      <c r="N28">
         <v>3.5974180819999999</v>
-      </c>
-      <c r="N28">
-        <v>5.1391686879999998</v>
       </c>
       <c r="O28">
         <v>5.1391686879999998</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28">
+        <v>5.1391686879999998</v>
+      </c>
+      <c r="Q28" t="s">
         <v>124</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>185</v>
       </c>
@@ -2869,23 +2986,27 @@
       <c r="L29" t="s">
         <v>190</v>
       </c>
-      <c r="M29">
-        <v>4.1113349499999998</v>
+      <c r="M29" t="str">
+        <f t="shared" si="0"/>
+        <v>u_28_LF</v>
       </c>
       <c r="N29">
-        <v>5.1391686879999998</v>
+        <v>4.1113349499999998</v>
       </c>
       <c r="O29">
         <v>5.1391686879999998</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29">
+        <v>5.1391686879999998</v>
+      </c>
+      <c r="Q29" t="s">
         <v>124</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>191</v>
       </c>
@@ -2922,8 +3043,9 @@
       <c r="L30" t="s">
         <v>196</v>
       </c>
-      <c r="M30">
-        <v>4.1113349499999998</v>
+      <c r="M30" t="str">
+        <f t="shared" si="0"/>
+        <v>u_29_LF</v>
       </c>
       <c r="N30">
         <v>4.1113349499999998</v>
@@ -2931,14 +3053,17 @@
       <c r="O30">
         <v>4.1113349499999998</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="Q30" t="s">
         <v>124</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>197</v>
       </c>
@@ -2975,8 +3100,9 @@
       <c r="L31" t="s">
         <v>202</v>
       </c>
-      <c r="M31">
-        <v>4.6252518189999998</v>
+      <c r="M31" t="str">
+        <f t="shared" si="0"/>
+        <v>u_30_LF</v>
       </c>
       <c r="N31">
         <v>4.6252518189999998</v>
@@ -2984,14 +3110,17 @@
       <c r="O31">
         <v>4.6252518189999998</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31">
+        <v>4.6252518189999998</v>
+      </c>
+      <c r="Q31" t="s">
         <v>124</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>203</v>
       </c>
@@ -3028,8 +3157,9 @@
       <c r="L32" t="s">
         <v>208</v>
       </c>
-      <c r="M32">
-        <v>4.1113349499999998</v>
+      <c r="M32" t="str">
+        <f t="shared" si="0"/>
+        <v>u_31_LF</v>
       </c>
       <c r="N32">
         <v>4.1113349499999998</v>
@@ -3037,14 +3167,17 @@
       <c r="O32">
         <v>4.1113349499999998</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="Q32" t="s">
         <v>124</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>209</v>
       </c>
@@ -3081,23 +3214,27 @@
       <c r="L33" t="s">
         <v>214</v>
       </c>
-      <c r="M33">
+      <c r="M33" t="str">
+        <f t="shared" si="0"/>
+        <v>u_32_LF</v>
+      </c>
+      <c r="N33">
         <v>3.5974180819999999</v>
-      </c>
-      <c r="N33">
-        <v>4.6252518189999998</v>
       </c>
       <c r="O33">
         <v>4.6252518189999998</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33">
+        <v>4.6252518189999998</v>
+      </c>
+      <c r="Q33" t="s">
         <v>124</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -3134,8 +3271,9 @@
       <c r="L34" t="s">
         <v>219</v>
       </c>
-      <c r="M34">
-        <v>4.6252518189999998</v>
+      <c r="M34" t="str">
+        <f t="shared" si="0"/>
+        <v>p_33_LF</v>
       </c>
       <c r="N34">
         <v>4.6252518189999998</v>
@@ -3143,14 +3281,17 @@
       <c r="O34">
         <v>4.6252518189999998</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34">
+        <v>4.6252518189999998</v>
+      </c>
+      <c r="Q34" t="s">
         <v>221</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>222</v>
       </c>
@@ -3187,8 +3328,9 @@
       <c r="L35" t="s">
         <v>226</v>
       </c>
-      <c r="M35">
-        <v>4.6252518189999998</v>
+      <c r="M35" t="str">
+        <f t="shared" si="0"/>
+        <v>p_34_LF</v>
       </c>
       <c r="N35">
         <v>4.6252518189999998</v>
@@ -3196,14 +3338,17 @@
       <c r="O35">
         <v>4.6252518189999998</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35">
+        <v>4.6252518189999998</v>
+      </c>
+      <c r="Q35" t="s">
         <v>221</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>228</v>
       </c>
@@ -3240,23 +3385,27 @@
       <c r="L36" t="s">
         <v>232</v>
       </c>
-      <c r="M36">
-        <v>4.1113349499999998</v>
+      <c r="M36" t="str">
+        <f t="shared" si="0"/>
+        <v>p_35_LF</v>
       </c>
       <c r="N36">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="O36">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O36">
-        <v>4.1113349499999998</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="P36">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="Q36" t="s">
         <v>221</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>234</v>
       </c>
@@ -3293,8 +3442,9 @@
       <c r="L37" t="s">
         <v>238</v>
       </c>
-      <c r="M37">
-        <v>4.1113349499999998</v>
+      <c r="M37" t="str">
+        <f t="shared" si="0"/>
+        <v>p_36_LF</v>
       </c>
       <c r="N37">
         <v>4.1113349499999998</v>
@@ -3302,14 +3452,17 @@
       <c r="O37">
         <v>4.1113349499999998</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="Q37" t="s">
         <v>221</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>240</v>
       </c>
@@ -3346,23 +3499,27 @@
       <c r="L38" t="s">
         <v>244</v>
       </c>
-      <c r="M38">
+      <c r="M38" t="str">
+        <f t="shared" si="0"/>
+        <v>p_37_LF</v>
+      </c>
+      <c r="N38">
         <v>3.5974180819999999</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>3.0835012129999999</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>3.5974180819999999</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>221</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>246</v>
       </c>
@@ -3399,23 +3556,27 @@
       <c r="L39" t="s">
         <v>250</v>
       </c>
-      <c r="M39">
-        <v>4.1113349499999998</v>
+      <c r="M39" t="str">
+        <f t="shared" si="0"/>
+        <v>p_38_LF</v>
       </c>
       <c r="N39">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="O39">
         <v>5.6530855569999998</v>
       </c>
-      <c r="O39">
-        <v>4.1113349499999998</v>
-      </c>
-      <c r="P39" t="s">
+      <c r="P39">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="Q39" t="s">
         <v>221</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>252</v>
       </c>
@@ -3452,23 +3613,27 @@
       <c r="L40" t="s">
         <v>256</v>
       </c>
-      <c r="M40">
-        <v>4.1113349499999998</v>
+      <c r="M40" t="str">
+        <f t="shared" si="0"/>
+        <v>p_39_LF</v>
       </c>
       <c r="N40">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="O40">
         <v>3.5974180819999999</v>
       </c>
-      <c r="O40">
-        <v>4.1113349499999998</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="P40">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="Q40" t="s">
         <v>221</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>258</v>
       </c>
@@ -3505,8 +3670,9 @@
       <c r="L41" t="s">
         <v>262</v>
       </c>
-      <c r="M41">
-        <v>3.5974180819999999</v>
+      <c r="M41" t="str">
+        <f t="shared" si="0"/>
+        <v>p_40_LF</v>
       </c>
       <c r="N41">
         <v>3.5974180819999999</v>
@@ -3514,14 +3680,17 @@
       <c r="O41">
         <v>3.5974180819999999</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41">
+        <v>3.5974180819999999</v>
+      </c>
+      <c r="Q41" t="s">
         <v>221</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>264</v>
       </c>
@@ -3558,23 +3727,27 @@
       <c r="L42" t="s">
         <v>269</v>
       </c>
-      <c r="M42">
-        <v>4.1113349499999998</v>
+      <c r="M42" t="str">
+        <f t="shared" si="0"/>
+        <v>u_41_LF</v>
       </c>
       <c r="N42">
-        <v>3.0835012129999999</v>
+        <v>4.1113349499999998</v>
       </c>
       <c r="O42">
         <v>3.0835012129999999</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P42">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="Q42" t="s">
         <v>221</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>270</v>
       </c>
@@ -3611,8 +3784,9 @@
       <c r="L43" t="s">
         <v>275</v>
       </c>
-      <c r="M43">
-        <v>3.0835012129999999</v>
+      <c r="M43" t="str">
+        <f t="shared" si="0"/>
+        <v>u_42_LF</v>
       </c>
       <c r="N43">
         <v>3.0835012129999999</v>
@@ -3620,14 +3794,17 @@
       <c r="O43">
         <v>3.0835012129999999</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="Q43" t="s">
         <v>221</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>276</v>
       </c>
@@ -3664,23 +3841,27 @@
       <c r="L44" t="s">
         <v>281</v>
       </c>
-      <c r="M44">
+      <c r="M44" t="str">
+        <f t="shared" si="0"/>
+        <v>u_43_LF</v>
+      </c>
+      <c r="N44">
         <v>3.0835012129999999</v>
       </c>
-      <c r="N44">
-        <v>4.1113349499999998</v>
-      </c>
       <c r="O44">
         <v>4.1113349499999998</v>
       </c>
-      <c r="P44" t="s">
+      <c r="P44">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="Q44" t="s">
         <v>221</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>282</v>
       </c>
@@ -3717,23 +3898,27 @@
       <c r="L45" t="s">
         <v>287</v>
       </c>
-      <c r="M45">
+      <c r="M45" t="str">
+        <f t="shared" si="0"/>
+        <v>u_44_LF</v>
+      </c>
+      <c r="N45">
         <v>4.6252518189999998</v>
-      </c>
-      <c r="N45">
-        <v>5.1391686879999998</v>
       </c>
       <c r="O45">
         <v>5.1391686879999998</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45">
+        <v>5.1391686879999998</v>
+      </c>
+      <c r="Q45" t="s">
         <v>221</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>288</v>
       </c>
@@ -3770,23 +3955,27 @@
       <c r="L46" t="s">
         <v>293</v>
       </c>
-      <c r="M46">
+      <c r="M46" t="str">
+        <f t="shared" si="0"/>
+        <v>u_45_LF</v>
+      </c>
+      <c r="N46">
         <v>4.6252518189999998</v>
-      </c>
-      <c r="N46">
-        <v>5.6530855569999998</v>
       </c>
       <c r="O46">
         <v>5.6530855569999998</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P46">
+        <v>5.6530855569999998</v>
+      </c>
+      <c r="Q46" t="s">
         <v>221</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>294</v>
       </c>
@@ -3823,23 +4012,27 @@
       <c r="L47" t="s">
         <v>299</v>
       </c>
-      <c r="M47">
+      <c r="M47" t="str">
+        <f t="shared" si="0"/>
+        <v>u_46_LF</v>
+      </c>
+      <c r="N47">
         <v>3.5974180819999999</v>
-      </c>
-      <c r="N47">
-        <v>3.0835012129999999</v>
       </c>
       <c r="O47">
         <v>3.0835012129999999</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="Q47" t="s">
         <v>221</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>300</v>
       </c>
@@ -3876,23 +4069,27 @@
       <c r="L48" t="s">
         <v>305</v>
       </c>
-      <c r="M48">
+      <c r="M48" t="str">
+        <f t="shared" si="0"/>
+        <v>u_47_LF</v>
+      </c>
+      <c r="N48">
         <v>4.6252518189999998</v>
-      </c>
-      <c r="N48">
-        <v>3.0835012129999999</v>
       </c>
       <c r="O48">
         <v>3.0835012129999999</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P48">
+        <v>3.0835012129999999</v>
+      </c>
+      <c r="Q48" t="s">
         <v>221</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>306</v>
       </c>
@@ -3929,8 +4126,9 @@
       <c r="L49" t="s">
         <v>311</v>
       </c>
-      <c r="M49">
-        <v>4.1113349499999998</v>
+      <c r="M49" t="str">
+        <f t="shared" si="0"/>
+        <v>u_48_LF</v>
       </c>
       <c r="N49">
         <v>4.1113349499999998</v>
@@ -3938,15 +4136,60 @@
       <c r="O49">
         <v>4.1113349499999998</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P49">
+        <v>4.1113349499999998</v>
+      </c>
+      <c r="Q49" t="s">
         <v>221</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="M50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="M51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="M52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="M53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="M54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="M55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="M56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="Q2:Q49">
+  <conditionalFormatting sqref="R2:R49">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
